--- a/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_社員機能.xlsx
+++ b/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_社員機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\総合テスト_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25135AF8-A0A5-49D9-8D27-319BCAFEE806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC0E78-1649-490F-9149-0C061237FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1社員の新規登録" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="125">
   <si>
     <t>employeeID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>No.1　社員の新規登録</t>
@@ -70,13 +67,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①システム管理者がEMSMへログインして、EMSMシステムの「社員情報変更」をクリック</t>
-    <rPh sb="5" eb="8">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>②「社員情報変更」の画面にて、「社員新規登録」をクリック</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -95,9 +85,6 @@
   </si>
   <si>
     <t>・メール：test@it-softtech.com</t>
-  </si>
-  <si>
-    <t>・初期パスワード：test123</t>
   </si>
   <si>
     <t>・ステータス：在籍</t>
@@ -286,9 +273,6 @@
     <t>・住所：埼玉県朝霞市</t>
   </si>
   <si>
-    <t>・電話番号：08099989988</t>
-  </si>
-  <si>
     <t xml:space="preserve">・個人番号：123123123123                                                                                                                                                                  </t>
   </si>
   <si>
@@ -325,10 +309,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>⑦システム管理者がEMSへログインする、「パスワード変更」をクリック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>⑧EMSシステムのパスワード更新画面にて、更新後パスワードに54321”に入力して、更新する</t>
   </si>
   <si>
@@ -346,13 +326,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>⑨システム管理者がEMSMへログインする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>⑩EMSMシステムの社員情報更新画面を開き、下記情報を入力し、「更新」ボタンをクリック。</t>
-  </si>
-  <si>
     <t>・タイプ：正社員</t>
   </si>
   <si>
@@ -374,13 +347,7 @@
     <t>・住所：横浜市中区</t>
   </si>
   <si>
-    <t>・電話番号：09098019181</t>
-  </si>
-  <si>
     <t>・メール：e004＠it-sofftech.com</t>
-  </si>
-  <si>
-    <t>・パスワード：12345</t>
   </si>
   <si>
     <t>・個人番号：123456123456</t>
@@ -390,61 +357,144 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・性別：男</t>
+    <t>employeeテブールに”nguyen”の行が更新される。更新後値は左記更新画面に入力した値と同じ</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>20011022</t>
+  </si>
+  <si>
+    <t>20221010</t>
+  </si>
+  <si>
+    <t>2310988</t>
+  </si>
+  <si>
+    <t>09098019181</t>
+  </si>
+  <si>
+    <t>e004@it-softtech.com</t>
+  </si>
+  <si>
+    <t>123456123456</t>
+  </si>
+  <si>
+    <t>No.6給料明細参照</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑪　No.2にて登録された社員がEMSにログインする</t>
+  </si>
+  <si>
+    <t>⑫　EMSシステムの「給料明細」リンクをクリックする</t>
+  </si>
+  <si>
+    <t>⑬　給料明細画面にて、対象年月に"2024"年"07"月を選択して、「検索」をクリック</t>
+  </si>
+  <si>
+    <t>・初期パスワード：12345</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①社員がEMSMへログインして、EMSMシステムの「社員情報変更」をクリック</t>
     <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オトコ</t>
+      <t>シャイン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>employeeテブールに”nguyen”の行が更新される。更新後値は左記更新画面に入力した値と同じ</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>20011022</t>
-  </si>
-  <si>
-    <t>20221010</t>
-  </si>
-  <si>
-    <t>2310988</t>
-  </si>
-  <si>
-    <t>09098019181</t>
-  </si>
-  <si>
-    <t>e004@it-softtech.com</t>
-  </si>
-  <si>
-    <t>20240822</t>
-  </si>
-  <si>
-    <t>123456123456</t>
-  </si>
-  <si>
-    <t>No.6給料明細参照</t>
+    <t>0</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>⑪　No.2にて登録された社員がEMSにログインする</t>
-  </si>
-  <si>
-    <t>⑫　EMSシステムの「給料明細」リンクをクリックする</t>
-  </si>
-  <si>
-    <t>⑬　給料明細画面にて、対象年月に"2024"年"07"月を選択して、「検索」をクリック</t>
+    <t>employeeテーブル新規登録前のデータ：</t>
+    <rPh sb="12" eb="16">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeテーブル更新前のデータ：</t>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・部門:1部</t>
+    <rPh sb="1" eb="3">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・電話番号：08099989988</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>202400829</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240829</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑦社員がEMSへログインする、「パスワード変更」をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑨社員(e002@it-softtech.com）がEMSMへログインして、「社員情報変更」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑩更新したい社員（E00004）に選択して、「検索」をクリックして、社員情報の行の「更新」をクリックEMSMシステムの社員情報更新画面を開き、下記情報を入力し、「更新」ボタンをクリック。</t>
+  </si>
+  <si>
+    <t>employeeテーブル更新する前のデータ：</t>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>01cfcd4f6b8770febfb40cb906715822</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・部門：1部</t>
+  </si>
+  <si>
+    <t>・電話番号：0909801918</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +532,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF7F878F"/>
       <name val="游ゴシック"/>
@@ -538,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,13 +1264,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1409,8 +1471,8 @@
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -1428,7 +1490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="579120" y="6263640"/>
-          <a:ext cx="1181100" cy="434340"/>
+          <a:ext cx="601980" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,54 +1529,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>440866</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>119065</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1578BEC1-FEBF-5322-4540-5D2C92FD83B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8046761" y="5486400"/>
-          <a:ext cx="3123065" cy="3669985"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
@@ -1539,8 +1557,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1760220" y="6446520"/>
-          <a:ext cx="6271260" cy="34290"/>
+          <a:off x="1181100" y="6446520"/>
+          <a:ext cx="6850380" cy="34290"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1569,69 +1587,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17295</xdr:colOff>
-      <xdr:row>56</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>206595</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9C9706-1342-533C-FBAE-27424CF44F3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="687855" y="12131040"/>
-          <a:ext cx="4212660" cy="5280660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA69DF1-4034-AD65-AA2A-F248463BCBD5}"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BE5CB9-DDB2-4799-EE22-0C4D92578EBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,14 +1613,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1516380" y="16984980"/>
-          <a:ext cx="647700" cy="419100"/>
+          <a:off x="441960" y="19179540"/>
+          <a:ext cx="13418820" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1681,23 +1655,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43930</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19822</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>515075</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>94325</xdr:rowOff>
+      <xdr:colOff>412214</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>220079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2974A88-0FF7-8F69-11CC-13759147C1BE}"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D72A959-4403-A81D-E59D-4220D6575B7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,15 +1680,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7420090" y="12146280"/>
-          <a:ext cx="3823945" cy="5161625"/>
+          <a:off x="8066542" y="5494020"/>
+          <a:ext cx="3074632" cy="4205339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,83 +1697,69 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>415580</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167936</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C20E353-1504-7438-A1E6-D1CDDC2861EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="415580" y="12245340"/>
+          <a:ext cx="3775716" cy="5295901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DDECCF-291F-29E3-E5FD-376934CDE351}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2164080" y="17194530"/>
-          <a:ext cx="5242560" cy="26670"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BE5CB9-DDB2-4799-EE22-0C4D92578EBC}"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA69DF1-4034-AD65-AA2A-F248463BCBD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,14 +1767,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="441960" y="19179540"/>
-          <a:ext cx="13418820" cy="396240"/>
+          <a:off x="1272540" y="17198340"/>
+          <a:ext cx="647700" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="38100">
+        <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1847,6 +1807,106 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DDECCF-291F-29E3-E5FD-376934CDE351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="17407890"/>
+          <a:ext cx="5242560" cy="26670"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC26FC40-1009-4143-045A-CEEA34A8AE7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7376160" y="12352021"/>
+          <a:ext cx="3870960" cy="5322570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1856,13 +1916,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>656370</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>107435</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>223753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1900,13 +1960,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1966,13 +2026,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>149503</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>143650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>84066</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2010,13 +2070,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2068,13 +2128,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>32577</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>349559</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>48451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2112,13 +2172,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2178,13 +2238,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2236,13 +2296,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>660243</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2280,13 +2340,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>226310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>562745</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>115092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2324,13 +2384,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2390,13 +2450,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2446,13 +2506,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22610</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>492022</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>77394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2486,6 +2546,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654959</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F25855-8C6A-6D2E-70D1-DFAE2ECC28F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654959" y="922020"/>
+          <a:ext cx="3787502" cy="4704891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2493,16 +2597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>365761</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33588</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388621</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2525,7 +2629,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670561" y="685800"/>
+          <a:off x="5387341" y="502920"/>
           <a:ext cx="8412480" cy="2319588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2535,69 +2639,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>10184</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>205741</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3902E8A3-964C-3D89-2D15-36F889B75D33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5364480" y="3657601"/>
-          <a:ext cx="3362984" cy="4320540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3828FA2E-9C86-81A2-55AB-3DA61B43984D}"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6680CD-7F30-90C4-31BD-53DB91344C8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,14 +2665,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5242560" y="7642860"/>
-          <a:ext cx="632460" cy="403860"/>
+          <a:off x="495300" y="9723120"/>
+          <a:ext cx="13373100" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2645,83 +2705,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7641C6-6FAB-43FA-69E3-F98CD2E92AD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5875020" y="7825740"/>
-          <a:ext cx="4838700" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>51986</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>454185</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>105800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE321DD0-EBE6-00C5-AB33-D6AA3F962B88}"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571A6949-6DC4-B350-A293-352CAE4204D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="457200"/>
+          <a:ext cx="3459480" cy="2933281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB04125-B5D5-0092-B0E7-75B3C63E9528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,8 +2783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10780946" y="3901440"/>
-          <a:ext cx="3084439" cy="3976760"/>
+          <a:off x="5394960" y="3448919"/>
+          <a:ext cx="8389620" cy="2600110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,23 +2795,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6680CD-7F30-90C4-31BD-53DB91344C8F}"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3B3CC9-B661-B102-8D64-74359C11AA9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,14 +2819,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="9723120"/>
-          <a:ext cx="13373100" cy="403860"/>
+          <a:off x="8823960" y="944880"/>
+          <a:ext cx="670560" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="38100">
+        <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2813,30 +2859,81 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8855BD82-B86C-A2B0-4DF8-A34967F1F2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9166860" y="1242060"/>
+          <a:ext cx="30480" cy="2232660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>33070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>623479</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>170541</xdr:rowOff>
+      <xdr:colOff>9818</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27C43CF-20A9-E327-9027-3EBC0BBA54EF}"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5B9D31-D46A-8A65-9337-3BB723D3762E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,15 +2942,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="678180" y="490270"/>
-          <a:ext cx="9333139" cy="3795071"/>
+          <a:off x="680378" y="6652260"/>
+          <a:ext cx="8054220" cy="3215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,69 +2959,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>135213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60CCD6F-92A6-50F3-90C0-B0206DA0826D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="5029201"/>
-          <a:ext cx="1584960" cy="4935812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE32078-37EC-2B40-EA0C-17F1A36145ED}"/>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F78341-3C73-3132-DA98-6E59BAEB3B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,14 +2985,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="480060" y="7231380"/>
-          <a:ext cx="1836420" cy="396240"/>
+          <a:off x="944880" y="8282940"/>
+          <a:ext cx="548640" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2974,213 +3027,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B39127-B69E-3C67-877D-A1F16752A0BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2316480" y="7406640"/>
-          <a:ext cx="2369820" cy="22860"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37331</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>213891</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359FBB14-0473-A29D-275A-789BB62C20AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4731251" y="5090160"/>
-          <a:ext cx="3970789" cy="4724931"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9904</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>47936</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBB026D-CA81-CDB4-2AD7-F4C6ED17B2B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8010904" y="11287125"/>
-          <a:ext cx="4066796" cy="5677211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638944</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>105306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DF9AC1-5CA6-4135-9842-57643F3D041D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="11153775"/>
-          <a:ext cx="3953644" cy="4724931"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>158115</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>226695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>226695</xdr:rowOff>
+      <xdr:colOff>665138</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BC981E-B44C-BA3C-2E57-7F74ED01352F}"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7347A8-B985-4A3A-8FB4-4AACD703CFD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,14 +3051,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="824865" y="11885295"/>
-          <a:ext cx="384810" cy="228600"/>
+          <a:off x="1335698" y="7810500"/>
+          <a:ext cx="455002" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -3230,23 +3093,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>49529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>434719</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>203834</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9327578-03B8-3791-C330-880162E966F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8734598" y="8252460"/>
+          <a:ext cx="691342" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E69147F-FB62-44B7-B6ED-9B3742B8AC07}"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F544F0-4C44-D0FC-50CA-D817606E97B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,14 +3175,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1360170" y="11936729"/>
-          <a:ext cx="408049" cy="154305"/>
+          <a:off x="19857720" y="8100060"/>
+          <a:ext cx="617220" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -3294,25 +3215,113 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22710</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>289807</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>149146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353F89D3-D4DB-814B-5454-41B3338827B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410550" y="6682739"/>
+          <a:ext cx="10996057" cy="2839007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>79983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B4C994-5266-5947-3A37-2C1B91FA1198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5227320" y="11217339"/>
+          <a:ext cx="3070860" cy="4178844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>484249</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>215265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>358519</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FB9A4F-26EF-4989-80A4-FE2CD8A38CD7}"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3828FA2E-9C86-81A2-55AB-3DA61B43984D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,8 +3329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1817749" y="11873865"/>
-          <a:ext cx="541020" cy="278130"/>
+          <a:off x="5173980" y="15171420"/>
+          <a:ext cx="525780" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,34 +3371,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>362329</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A58E71C-170F-1AFB-6A1A-1A2BCFD7D7F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7641C6-6FAB-43FA-69E3-F98CD2E92AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362579" y="12011025"/>
-          <a:ext cx="5628896" cy="9525"/>
+          <a:off x="5737860" y="15278100"/>
+          <a:ext cx="4945380" cy="60960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3416,6 +3423,655 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>633880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>467459</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>220073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E98EA85-03DE-0F12-1E48-986EE1D9CC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10692280" y="11209020"/>
+          <a:ext cx="3186379" cy="4327253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>623479</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27C43CF-20A9-E327-9027-3EBC0BBA54EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="490270"/>
+          <a:ext cx="9333139" cy="3795071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>135213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60CCD6F-92A6-50F3-90C0-B0206DA0826D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="5029201"/>
+          <a:ext cx="1584960" cy="4935812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE32078-37EC-2B40-EA0C-17F1A36145ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480060" y="7231380"/>
+          <a:ext cx="1836420" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B39127-B69E-3C67-877D-A1F16752A0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2316480" y="7406640"/>
+          <a:ext cx="2369820" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37331</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>213891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359FBB14-0473-A29D-275A-789BB62C20AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4731251" y="5090160"/>
+          <a:ext cx="3970789" cy="4724931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638944</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>105306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DF9AC1-5CA6-4135-9842-57643F3D041D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11153775"/>
+          <a:ext cx="3953644" cy="4724931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>226695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>226695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BC981E-B44C-BA3C-2E57-7F74ED01352F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="824865" y="11885295"/>
+          <a:ext cx="384810" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>49529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434719</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>203834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E69147F-FB62-44B7-B6ED-9B3742B8AC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1360170" y="11936729"/>
+          <a:ext cx="408049" cy="154305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>484249</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358519</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FB9A4F-26EF-4989-80A4-FE2CD8A38CD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1817749" y="11873865"/>
+          <a:ext cx="541020" cy="278130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362329</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A58E71C-170F-1AFB-6A1A-1A2BCFD7D7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362579" y="12011025"/>
+          <a:ext cx="5628896" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35689</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>198121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DBAEB3-12D6-E0B4-06CE-C4025161D62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8046721" y="10972801"/>
+          <a:ext cx="3388488" cy="4998720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3720,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF951A0-4775-4CC1-8743-B4E63912ED7F}">
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -3732,12 +4388,12 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.45">
@@ -3780,7 +4436,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3793,24 +4449,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3847,42 +4503,42 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="36" x14ac:dyDescent="0.45">
@@ -3890,46 +4546,46 @@
         <v>0</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="L42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="N42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="O42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>1</v>
@@ -3938,21 +4594,21 @@
         <v>2</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
@@ -3961,57 +4617,57 @@
         <v>7</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>3</v>
@@ -4023,10 +4679,10 @@
         <v>6</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>6</v>
@@ -4035,42 +4691,42 @@
         <v>3</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>6</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>3</v>
@@ -4082,10 +4738,10 @@
         <v>6</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>6</v>
@@ -4094,89 +4750,330 @@
         <v>3</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="T45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="36" x14ac:dyDescent="0.45">
+      <c r="B50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B46" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="R54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="S54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T46" s="6" t="s">
+      <c r="T54" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4189,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D897BA4-057F-4A51-A6E4-D7D7C2AF2A60}">
-  <dimension ref="A2:T88"/>
+  <dimension ref="A2:T92"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="T77" sqref="T77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -4202,131 +5099,136 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:2" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L56" s="1" t="s">
-        <v>79</v>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L57" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" ht="36" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="B84" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="K84" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I84" s="5" t="s">
+      <c r="L84" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="M84" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="N84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="O84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="P84" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P84" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>1</v>
@@ -4335,246 +5237,192 @@
         <v>2</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T84" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" ht="18" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="B85" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="S85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T85" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" ht="18" x14ac:dyDescent="0.45">
-      <c r="B86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="T85" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" ht="36" x14ac:dyDescent="0.45">
+      <c r="B91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T91" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" ht="18" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="L92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" ht="18" x14ac:dyDescent="0.45">
-      <c r="B87" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" ht="18" x14ac:dyDescent="0.45">
-      <c r="B88" s="2" t="s">
+      <c r="P92" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="2" t="s">
+      <c r="Q92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S92" s="7">
+        <v>1</v>
+      </c>
+      <c r="T92" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4586,32 +5434,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>89</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4623,402 +5471,348 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89:J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" s="1" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+      <c r="D73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" ht="36" x14ac:dyDescent="0.45">
+      <c r="B79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
+      <c r="Q80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T80" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" ht="36" x14ac:dyDescent="0.45">
-      <c r="B39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5032,30 +5826,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
